--- a/src/out/x.xlsx
+++ b/src/out/x.xlsx
@@ -5310,7 +5310,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5343,7 +5343,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5574,7 +5574,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5585,7 +5585,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5596,7 +5596,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5629,7 +5629,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5673,7 +5673,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5706,7 +5706,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5750,7 +5750,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5772,7 +5772,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5915,7 +5915,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5992,7 +5992,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -6124,7 +6124,7 @@
         <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -6168,7 +6168,7 @@
         <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -6223,7 +6223,7 @@
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -6256,7 +6256,7 @@
         <v>85</v>
       </c>
       <c r="C91" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -6355,7 +6355,7 @@
         <v>94</v>
       </c>
       <c r="C100" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -6366,7 +6366,7 @@
         <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6498,7 +6498,7 @@
         <v>107</v>
       </c>
       <c r="C113" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -6531,7 +6531,7 @@
         <v>110</v>
       </c>
       <c r="C116" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -6564,7 +6564,7 @@
         <v>113</v>
       </c>
       <c r="C119" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -6663,7 +6663,7 @@
         <v>122</v>
       </c>
       <c r="C128" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6685,7 +6685,7 @@
         <v>124</v>
       </c>
       <c r="C130" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6751,7 +6751,7 @@
         <v>130</v>
       </c>
       <c r="C136" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -6762,7 +6762,7 @@
         <v>130</v>
       </c>
       <c r="C137" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -6773,7 +6773,7 @@
         <v>130</v>
       </c>
       <c r="C138" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -6795,7 +6795,7 @@
         <v>132</v>
       </c>
       <c r="C140" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -6806,7 +6806,7 @@
         <v>133</v>
       </c>
       <c r="C141" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -6916,7 +6916,7 @@
         <v>143</v>
       </c>
       <c r="C151" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -6971,7 +6971,7 @@
         <v>147</v>
       </c>
       <c r="C156" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -7037,7 +7037,7 @@
         <v>150</v>
       </c>
       <c r="C162" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -7070,7 +7070,7 @@
         <v>153</v>
       </c>
       <c r="C165" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -7081,7 +7081,7 @@
         <v>154</v>
       </c>
       <c r="C166" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -7103,7 +7103,7 @@
         <v>156</v>
       </c>
       <c r="C168" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -7136,7 +7136,7 @@
         <v>159</v>
       </c>
       <c r="C171" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -7158,7 +7158,7 @@
         <v>161</v>
       </c>
       <c r="C173" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -7246,7 +7246,7 @@
         <v>169</v>
       </c>
       <c r="C181" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -7631,7 +7631,7 @@
         <v>175</v>
       </c>
       <c r="C216" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -7675,7 +7675,7 @@
         <v>179</v>
       </c>
       <c r="C220" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -7708,7 +7708,7 @@
         <v>182</v>
       </c>
       <c r="C223" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -7741,7 +7741,7 @@
         <v>185</v>
       </c>
       <c r="C226" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -7763,7 +7763,7 @@
         <v>187</v>
       </c>
       <c r="C228" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -7807,7 +7807,7 @@
         <v>191</v>
       </c>
       <c r="C232" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -7873,7 +7873,7 @@
         <v>197</v>
       </c>
       <c r="C238" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -7906,7 +7906,7 @@
         <v>200</v>
       </c>
       <c r="C241" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -8192,7 +8192,7 @@
         <v>212</v>
       </c>
       <c r="C267" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -8269,7 +8269,7 @@
         <v>219</v>
       </c>
       <c r="C274" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -8302,7 +8302,7 @@
         <v>222</v>
       </c>
       <c r="C277" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -8313,7 +8313,7 @@
         <v>223</v>
       </c>
       <c r="C278" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -8324,7 +8324,7 @@
         <v>224</v>
       </c>
       <c r="C279" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -8401,7 +8401,7 @@
         <v>231</v>
       </c>
       <c r="C286" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -8489,7 +8489,7 @@
         <v>239</v>
       </c>
       <c r="C294" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -8522,7 +8522,7 @@
         <v>242</v>
       </c>
       <c r="C297" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -8621,7 +8621,7 @@
         <v>251</v>
       </c>
       <c r="C306" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -8665,7 +8665,7 @@
         <v>255</v>
       </c>
       <c r="C310" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -8764,7 +8764,7 @@
         <v>263</v>
       </c>
       <c r="C319" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -8808,7 +8808,7 @@
         <v>267</v>
       </c>
       <c r="C323" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -8852,7 +8852,7 @@
         <v>271</v>
       </c>
       <c r="C327" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -8863,7 +8863,7 @@
         <v>271</v>
       </c>
       <c r="C328" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -9061,7 +9061,7 @@
         <v>286</v>
       </c>
       <c r="C346" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -9094,7 +9094,7 @@
         <v>289</v>
       </c>
       <c r="C349" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -9325,7 +9325,7 @@
         <v>306</v>
       </c>
       <c r="C370" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -9380,7 +9380,7 @@
         <v>310</v>
       </c>
       <c r="C375" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -9413,7 +9413,7 @@
         <v>313</v>
       </c>
       <c r="C378" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -9424,7 +9424,7 @@
         <v>314</v>
       </c>
       <c r="C379" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -9501,7 +9501,7 @@
         <v>321</v>
       </c>
       <c r="C386" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -9523,7 +9523,7 @@
         <v>323</v>
       </c>
       <c r="C388" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -9589,7 +9589,7 @@
         <v>327</v>
       </c>
       <c r="C394" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -9666,7 +9666,7 @@
         <v>332</v>
       </c>
       <c r="C401" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -9765,7 +9765,7 @@
         <v>340</v>
       </c>
       <c r="C410" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -9798,7 +9798,7 @@
         <v>343</v>
       </c>
       <c r="C413" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -9831,7 +9831,7 @@
         <v>346</v>
       </c>
       <c r="C416" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -9864,7 +9864,7 @@
         <v>349</v>
       </c>
       <c r="C419" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -10183,7 +10183,7 @@
         <v>373</v>
       </c>
       <c r="C448" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -10227,7 +10227,7 @@
         <v>375</v>
       </c>
       <c r="C452" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -10293,7 +10293,7 @@
         <v>380</v>
       </c>
       <c r="C458" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -10348,7 +10348,7 @@
         <v>384</v>
       </c>
       <c r="C463" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -10359,7 +10359,7 @@
         <v>385</v>
       </c>
       <c r="C464" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -10370,7 +10370,7 @@
         <v>386</v>
       </c>
       <c r="C465" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -10381,7 +10381,7 @@
         <v>386</v>
       </c>
       <c r="C466" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -10425,7 +10425,7 @@
         <v>389</v>
       </c>
       <c r="C470" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -10436,7 +10436,7 @@
         <v>390</v>
       </c>
       <c r="C471" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -10447,7 +10447,7 @@
         <v>390</v>
       </c>
       <c r="C472" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -10458,7 +10458,7 @@
         <v>390</v>
       </c>
       <c r="C473" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -10601,7 +10601,7 @@
         <v>398</v>
       </c>
       <c r="C486" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -10623,7 +10623,7 @@
         <v>398</v>
       </c>
       <c r="C488" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -10700,7 +10700,7 @@
         <v>403</v>
       </c>
       <c r="C495" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -10821,7 +10821,7 @@
         <v>411</v>
       </c>
       <c r="C506" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -10843,7 +10843,7 @@
         <v>413</v>
       </c>
       <c r="C508" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -10865,7 +10865,7 @@
         <v>415</v>
       </c>
       <c r="C510" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -10942,7 +10942,7 @@
         <v>421</v>
       </c>
       <c r="C517" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -12086,7 +12086,7 @@
         <v>442</v>
       </c>
       <c r="C621" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -12097,7 +12097,7 @@
         <v>442</v>
       </c>
       <c r="C622" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -12108,7 +12108,7 @@
         <v>443</v>
       </c>
       <c r="C623" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -12119,7 +12119,7 @@
         <v>443</v>
       </c>
       <c r="C624" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -12339,7 +12339,7 @@
         <v>459</v>
       </c>
       <c r="C644" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -12372,7 +12372,7 @@
         <v>461</v>
       </c>
       <c r="C647" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -12416,7 +12416,7 @@
         <v>465</v>
       </c>
       <c r="C651" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -12603,7 +12603,7 @@
         <v>475</v>
       </c>
       <c r="C668" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -12614,7 +12614,7 @@
         <v>476</v>
       </c>
       <c r="C669" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -12625,7 +12625,7 @@
         <v>477</v>
       </c>
       <c r="C670" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -12647,7 +12647,7 @@
         <v>479</v>
       </c>
       <c r="C672" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -12757,7 +12757,7 @@
         <v>488</v>
       </c>
       <c r="C682" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -12845,7 +12845,7 @@
         <v>493</v>
       </c>
       <c r="C690" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -12922,7 +12922,7 @@
         <v>499</v>
       </c>
       <c r="C697" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -13010,7 +13010,7 @@
         <v>506</v>
       </c>
       <c r="C705" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -13021,7 +13021,7 @@
         <v>506</v>
       </c>
       <c r="C706" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -13032,7 +13032,7 @@
         <v>506</v>
       </c>
       <c r="C707" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -13043,7 +13043,7 @@
         <v>507</v>
       </c>
       <c r="C708" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -13054,7 +13054,7 @@
         <v>508</v>
       </c>
       <c r="C709" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -13340,7 +13340,7 @@
         <v>518</v>
       </c>
       <c r="C735" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -13351,7 +13351,7 @@
         <v>519</v>
       </c>
       <c r="C736" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -13527,7 +13527,7 @@
         <v>532</v>
       </c>
       <c r="C752" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -13604,7 +13604,7 @@
         <v>539</v>
       </c>
       <c r="C759" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -13714,7 +13714,7 @@
         <v>547</v>
       </c>
       <c r="C769" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -13846,7 +13846,7 @@
         <v>559</v>
       </c>
       <c r="C781" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -14033,7 +14033,7 @@
         <v>571</v>
       </c>
       <c r="C798" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -14077,7 +14077,7 @@
         <v>574</v>
       </c>
       <c r="C802" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -14264,7 +14264,7 @@
         <v>583</v>
       </c>
       <c r="C819" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -14275,7 +14275,7 @@
         <v>584</v>
       </c>
       <c r="C820" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -14286,7 +14286,7 @@
         <v>584</v>
       </c>
       <c r="C821" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -14297,7 +14297,7 @@
         <v>584</v>
       </c>
       <c r="C822" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -14308,7 +14308,7 @@
         <v>585</v>
       </c>
       <c r="C823" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -14319,7 +14319,7 @@
         <v>585</v>
       </c>
       <c r="C824" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -14363,7 +14363,7 @@
         <v>589</v>
       </c>
       <c r="C828" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -14605,7 +14605,7 @@
         <v>608</v>
       </c>
       <c r="C850" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -14770,7 +14770,7 @@
         <v>617</v>
       </c>
       <c r="C865" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -14792,7 +14792,7 @@
         <v>619</v>
       </c>
       <c r="C867" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -15045,7 +15045,7 @@
         <v>635</v>
       </c>
       <c r="C890" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -15078,7 +15078,7 @@
         <v>638</v>
       </c>
       <c r="C893" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -15155,7 +15155,7 @@
         <v>644</v>
       </c>
       <c r="C900" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -15331,7 +15331,7 @@
         <v>657</v>
       </c>
       <c r="C916" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -15419,7 +15419,7 @@
         <v>665</v>
       </c>
       <c r="C924" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -15430,7 +15430,7 @@
         <v>665</v>
       </c>
       <c r="C925" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -15441,7 +15441,7 @@
         <v>665</v>
       </c>
       <c r="C926" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -15452,7 +15452,7 @@
         <v>665</v>
       </c>
       <c r="C927" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="928" spans="1:3">
@@ -15507,7 +15507,7 @@
         <v>668</v>
       </c>
       <c r="C932" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="933" spans="1:3">
@@ -15518,7 +15518,7 @@
         <v>668</v>
       </c>
       <c r="C933" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="934" spans="1:3">
@@ -15672,7 +15672,7 @@
         <v>677</v>
       </c>
       <c r="C947" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="948" spans="1:3">
@@ -15793,7 +15793,7 @@
         <v>684</v>
       </c>
       <c r="C958" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="959" spans="1:3">
@@ -15804,7 +15804,7 @@
         <v>684</v>
       </c>
       <c r="C959" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="960" spans="1:3">
@@ -15936,7 +15936,7 @@
         <v>692</v>
       </c>
       <c r="C971" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:3">
@@ -16112,7 +16112,7 @@
         <v>706</v>
       </c>
       <c r="C987" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="988" spans="1:3">
@@ -16123,7 +16123,7 @@
         <v>706</v>
       </c>
       <c r="C988" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="989" spans="1:3">
@@ -16134,7 +16134,7 @@
         <v>706</v>
       </c>
       <c r="C989" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="990" spans="1:3">
@@ -16156,7 +16156,7 @@
         <v>708</v>
       </c>
       <c r="C991" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="992" spans="1:3">
@@ -16189,7 +16189,7 @@
         <v>711</v>
       </c>
       <c r="C994" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:3">
@@ -16299,7 +16299,7 @@
         <v>721</v>
       </c>
       <c r="C1004" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
@@ -16343,7 +16343,7 @@
         <v>725</v>
       </c>
       <c r="C1008" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
@@ -16354,7 +16354,7 @@
         <v>725</v>
       </c>
       <c r="C1009" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1010" spans="1:3">
@@ -16365,7 +16365,7 @@
         <v>726</v>
       </c>
       <c r="C1010" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1011" spans="1:3">
@@ -16376,7 +16376,7 @@
         <v>726</v>
       </c>
       <c r="C1011" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1012" spans="1:3">
@@ -16409,7 +16409,7 @@
         <v>729</v>
       </c>
       <c r="C1014" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
@@ -16442,7 +16442,7 @@
         <v>732</v>
       </c>
       <c r="C1017" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
@@ -16475,7 +16475,7 @@
         <v>734</v>
       </c>
       <c r="C1020" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
@@ -16486,7 +16486,7 @@
         <v>734</v>
       </c>
       <c r="C1021" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:3">
@@ -16926,7 +16926,7 @@
         <v>748</v>
       </c>
       <c r="C1061" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1062" spans="1:3">
@@ -17058,7 +17058,7 @@
         <v>755</v>
       </c>
       <c r="C1073" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1074" spans="1:3">
@@ -17069,7 +17069,7 @@
         <v>756</v>
       </c>
       <c r="C1074" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1075" spans="1:3">
@@ -17080,7 +17080,7 @@
         <v>756</v>
       </c>
       <c r="C1075" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1076" spans="1:3">
@@ -17091,7 +17091,7 @@
         <v>757</v>
       </c>
       <c r="C1076" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1077" spans="1:3">
@@ -17113,7 +17113,7 @@
         <v>759</v>
       </c>
       <c r="C1078" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:3">
@@ -17146,7 +17146,7 @@
         <v>762</v>
       </c>
       <c r="C1081" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1082" spans="1:3">
@@ -17157,7 +17157,7 @@
         <v>763</v>
       </c>
       <c r="C1082" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:3">
@@ -17190,7 +17190,7 @@
         <v>766</v>
       </c>
       <c r="C1085" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1086" spans="1:3">
@@ -17212,7 +17212,7 @@
         <v>768</v>
       </c>
       <c r="C1087" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:3">
@@ -17245,7 +17245,7 @@
         <v>771</v>
       </c>
       <c r="C1090" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1091" spans="1:3">
@@ -17278,7 +17278,7 @@
         <v>774</v>
       </c>
       <c r="C1093" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:3">
@@ -17333,7 +17333,7 @@
         <v>779</v>
       </c>
       <c r="C1098" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:3">
@@ -17498,7 +17498,7 @@
         <v>791</v>
       </c>
       <c r="C1113" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:3">
@@ -17575,7 +17575,7 @@
         <v>797</v>
       </c>
       <c r="C1120" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:3">
@@ -17586,7 +17586,7 @@
         <v>798</v>
       </c>
       <c r="C1121" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1122" spans="1:3">
@@ -17597,7 +17597,7 @@
         <v>799</v>
       </c>
       <c r="C1122" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1123" spans="1:3">
@@ -17740,7 +17740,7 @@
         <v>809</v>
       </c>
       <c r="C1135" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1136" spans="1:3">
@@ -17784,7 +17784,7 @@
         <v>812</v>
       </c>
       <c r="C1139" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1140" spans="1:3">
@@ -17795,7 +17795,7 @@
         <v>813</v>
       </c>
       <c r="C1140" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1141" spans="1:3">
@@ -17839,7 +17839,7 @@
         <v>817</v>
       </c>
       <c r="C1144" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:3">
@@ -17861,7 +17861,7 @@
         <v>819</v>
       </c>
       <c r="C1146" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1147" spans="1:3">
@@ -17872,7 +17872,7 @@
         <v>820</v>
       </c>
       <c r="C1147" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1148" spans="1:3">
@@ -17894,7 +17894,7 @@
         <v>822</v>
       </c>
       <c r="C1149" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1150" spans="1:3">
@@ -17938,7 +17938,7 @@
         <v>826</v>
       </c>
       <c r="C1153" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:3">
@@ -17971,7 +17971,7 @@
         <v>829</v>
       </c>
       <c r="C1156" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1157" spans="1:3">
@@ -17982,7 +17982,7 @@
         <v>830</v>
       </c>
       <c r="C1157" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1158" spans="1:3">
@@ -17993,7 +17993,7 @@
         <v>831</v>
       </c>
       <c r="C1158" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:3">
@@ -18070,7 +18070,7 @@
         <v>838</v>
       </c>
       <c r="C1165" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:3">
@@ -18103,7 +18103,7 @@
         <v>841</v>
       </c>
       <c r="C1168" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:3">
@@ -18246,7 +18246,7 @@
         <v>850</v>
       </c>
       <c r="C1181" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1182" spans="1:3">
@@ -18257,7 +18257,7 @@
         <v>850</v>
       </c>
       <c r="C1182" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1183" spans="1:3">
@@ -18268,7 +18268,7 @@
         <v>851</v>
       </c>
       <c r="C1183" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:3">
@@ -18279,7 +18279,7 @@
         <v>852</v>
       </c>
       <c r="C1184" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1185" spans="1:3">
@@ -18290,7 +18290,7 @@
         <v>852</v>
       </c>
       <c r="C1185" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1186" spans="1:3">
@@ -18301,7 +18301,7 @@
         <v>852</v>
       </c>
       <c r="C1186" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1187" spans="1:3">
@@ -18356,7 +18356,7 @@
         <v>856</v>
       </c>
       <c r="C1191" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1192" spans="1:3">
@@ -18378,7 +18378,7 @@
         <v>857</v>
       </c>
       <c r="C1193" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:3">
@@ -18422,7 +18422,7 @@
         <v>861</v>
       </c>
       <c r="C1197" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1198" spans="1:3">
@@ -18433,7 +18433,7 @@
         <v>861</v>
       </c>
       <c r="C1198" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1199" spans="1:3">
@@ -18444,7 +18444,7 @@
         <v>862</v>
       </c>
       <c r="C1199" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1200" spans="1:3">
@@ -18521,7 +18521,7 @@
         <v>866</v>
       </c>
       <c r="C1206" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1207" spans="1:3">
@@ -18543,7 +18543,7 @@
         <v>866</v>
       </c>
       <c r="C1208" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1209" spans="1:3">
@@ -18598,7 +18598,7 @@
         <v>871</v>
       </c>
       <c r="C1213" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:3">
@@ -18609,7 +18609,7 @@
         <v>872</v>
       </c>
       <c r="C1214" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:3">
@@ -18664,7 +18664,7 @@
         <v>877</v>
       </c>
       <c r="C1219" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
@@ -19159,7 +19159,7 @@
         <v>892</v>
       </c>
       <c r="C1264" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1265" spans="1:3">
@@ -19170,7 +19170,7 @@
         <v>892</v>
       </c>
       <c r="C1265" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1266" spans="1:3">
@@ -20149,7 +20149,7 @@
         <v>925</v>
       </c>
       <c r="C1354" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1355" spans="1:3">
@@ -20314,7 +20314,7 @@
         <v>938</v>
       </c>
       <c r="C1369" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
@@ -20336,7 +20336,7 @@
         <v>940</v>
       </c>
       <c r="C1371" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -20545,7 +20545,7 @@
         <v>955</v>
       </c>
       <c r="C1390" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1391" spans="1:3">
@@ -20567,7 +20567,7 @@
         <v>957</v>
       </c>
       <c r="C1392" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1393" spans="1:3">
@@ -20633,7 +20633,7 @@
         <v>957</v>
       </c>
       <c r="C1398" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -20666,7 +20666,7 @@
         <v>965</v>
       </c>
       <c r="C1401" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
@@ -20688,7 +20688,7 @@
         <v>967</v>
       </c>
       <c r="C1403" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1404" spans="1:3">
@@ -20787,7 +20787,7 @@
         <v>970</v>
       </c>
       <c r="C1412" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1413" spans="1:3">
@@ -20809,7 +20809,7 @@
         <v>972</v>
       </c>
       <c r="C1414" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1415" spans="1:3">
@@ -20831,7 +20831,7 @@
         <v>974</v>
       </c>
       <c r="C1416" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1417" spans="1:3">
@@ -20886,7 +20886,7 @@
         <v>979</v>
       </c>
       <c r="C1421" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1422" spans="1:3">
@@ -21007,7 +21007,7 @@
         <v>987</v>
       </c>
       <c r="C1432" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1433" spans="1:3">
@@ -21084,7 +21084,7 @@
         <v>991</v>
       </c>
       <c r="C1439" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1440" spans="1:3">
@@ -21095,7 +21095,7 @@
         <v>992</v>
       </c>
       <c r="C1440" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1441" spans="1:3">
@@ -21370,7 +21370,7 @@
         <v>1006</v>
       </c>
       <c r="C1465" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1466" spans="1:3">
@@ -21414,7 +21414,7 @@
         <v>1009</v>
       </c>
       <c r="C1469" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1470" spans="1:3">
@@ -21425,7 +21425,7 @@
         <v>1010</v>
       </c>
       <c r="C1470" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1471" spans="1:3">
@@ -21436,7 +21436,7 @@
         <v>1011</v>
       </c>
       <c r="C1471" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1472" spans="1:3">
@@ -21447,7 +21447,7 @@
         <v>1012</v>
       </c>
       <c r="C1472" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1473" spans="1:3">
@@ -21524,7 +21524,7 @@
         <v>1017</v>
       </c>
       <c r="C1479" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1480" spans="1:3">
@@ -21711,7 +21711,7 @@
         <v>1032</v>
       </c>
       <c r="C1496" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1497" spans="1:3">
@@ -21722,7 +21722,7 @@
         <v>1032</v>
       </c>
       <c r="C1497" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1498" spans="1:3">
@@ -21799,7 +21799,7 @@
         <v>1037</v>
       </c>
       <c r="C1504" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1505" spans="1:3">
@@ -21832,7 +21832,7 @@
         <v>1040</v>
       </c>
       <c r="C1507" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1508" spans="1:3">
@@ -21843,7 +21843,7 @@
         <v>1041</v>
       </c>
       <c r="C1508" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1509" spans="1:3">
@@ -21920,7 +21920,7 @@
         <v>1047</v>
       </c>
       <c r="C1515" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1516" spans="1:3">
@@ -21942,7 +21942,7 @@
         <v>1049</v>
       </c>
       <c r="C1517" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1518" spans="1:3">
@@ -22217,7 +22217,7 @@
         <v>1065</v>
       </c>
       <c r="C1542" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1543" spans="1:3">
@@ -22261,7 +22261,7 @@
         <v>1068</v>
       </c>
       <c r="C1546" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1547" spans="1:3">
@@ -22272,7 +22272,7 @@
         <v>1069</v>
       </c>
       <c r="C1547" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1548" spans="1:3">
@@ -22382,7 +22382,7 @@
         <v>1068</v>
       </c>
       <c r="C1557" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1558" spans="1:3">
@@ -22393,7 +22393,7 @@
         <v>1074</v>
       </c>
       <c r="C1558" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1559" spans="1:3">
@@ -22415,7 +22415,7 @@
         <v>1076</v>
       </c>
       <c r="C1560" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1561" spans="1:3">
@@ -22426,7 +22426,7 @@
         <v>1077</v>
       </c>
       <c r="C1561" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1562" spans="1:3">
@@ -22437,7 +22437,7 @@
         <v>1078</v>
       </c>
       <c r="C1562" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1563" spans="1:3">
@@ -22448,7 +22448,7 @@
         <v>1078</v>
       </c>
       <c r="C1563" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1564" spans="1:3">
@@ -22459,7 +22459,7 @@
         <v>1079</v>
       </c>
       <c r="C1564" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1565" spans="1:3">
@@ -22470,7 +22470,7 @@
         <v>1080</v>
       </c>
       <c r="C1565" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1566" spans="1:3">
@@ -22481,7 +22481,7 @@
         <v>1080</v>
       </c>
       <c r="C1566" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1567" spans="1:3">
@@ -22514,7 +22514,7 @@
         <v>1083</v>
       </c>
       <c r="C1569" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1570" spans="1:3">
@@ -22525,7 +22525,7 @@
         <v>1083</v>
       </c>
       <c r="C1570" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1571" spans="1:3">
@@ -22536,7 +22536,7 @@
         <v>1083</v>
       </c>
       <c r="C1571" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1572" spans="1:3">
@@ -22712,7 +22712,7 @@
         <v>1096</v>
       </c>
       <c r="C1587" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1588" spans="1:3">
@@ -22723,7 +22723,7 @@
         <v>1096</v>
       </c>
       <c r="C1588" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1589" spans="1:3">
@@ -22734,7 +22734,7 @@
         <v>1097</v>
       </c>
       <c r="C1589" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1590" spans="1:3">
@@ -22745,7 +22745,7 @@
         <v>1097</v>
       </c>
       <c r="C1590" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1591" spans="1:3">
@@ -22800,7 +22800,7 @@
         <v>1101</v>
       </c>
       <c r="C1595" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1596" spans="1:3">
@@ -22998,7 +22998,7 @@
         <v>1110</v>
       </c>
       <c r="C1613" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1614" spans="1:3">
@@ -23009,7 +23009,7 @@
         <v>1111</v>
       </c>
       <c r="C1614" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1615" spans="1:3">
@@ -23394,7 +23394,7 @@
         <v>1126</v>
       </c>
       <c r="C1649" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1650" spans="1:3">
@@ -23416,7 +23416,7 @@
         <v>1128</v>
       </c>
       <c r="C1651" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1652" spans="1:3">
@@ -23427,7 +23427,7 @@
         <v>1129</v>
       </c>
       <c r="C1652" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1653" spans="1:3">
@@ -23438,7 +23438,7 @@
         <v>1130</v>
       </c>
       <c r="C1653" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1654" spans="1:3">
@@ -23493,7 +23493,7 @@
         <v>1135</v>
       </c>
       <c r="C1658" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1659" spans="1:3">
@@ -23647,7 +23647,7 @@
         <v>1149</v>
       </c>
       <c r="C1672" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1673" spans="1:3">
@@ -23680,7 +23680,7 @@
         <v>1152</v>
       </c>
       <c r="C1675" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1676" spans="1:3">
@@ -23702,7 +23702,7 @@
         <v>1154</v>
       </c>
       <c r="C1677" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1678" spans="1:3">
@@ -23922,7 +23922,7 @@
         <v>1164</v>
       </c>
       <c r="C1697" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1698" spans="1:3">
@@ -23933,7 +23933,7 @@
         <v>1165</v>
       </c>
       <c r="C1698" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1699" spans="1:3">
@@ -23955,7 +23955,7 @@
         <v>1167</v>
       </c>
       <c r="C1700" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1701" spans="1:3">
@@ -24318,7 +24318,7 @@
         <v>1183</v>
       </c>
       <c r="C1733" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1734" spans="1:3">
@@ -24329,7 +24329,7 @@
         <v>1184</v>
       </c>
       <c r="C1734" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1735" spans="1:3">
@@ -24340,7 +24340,7 @@
         <v>1184</v>
       </c>
       <c r="C1735" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1736" spans="1:3">
@@ -24351,7 +24351,7 @@
         <v>1184</v>
       </c>
       <c r="C1736" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1737" spans="1:3">
@@ -24362,7 +24362,7 @@
         <v>1185</v>
       </c>
       <c r="C1737" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1738" spans="1:3">
@@ -24373,7 +24373,7 @@
         <v>1186</v>
       </c>
       <c r="C1738" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1739" spans="1:3">
@@ -24384,7 +24384,7 @@
         <v>1187</v>
       </c>
       <c r="C1739" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1740" spans="1:3">
@@ -24428,7 +24428,7 @@
         <v>1191</v>
       </c>
       <c r="C1743" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1744" spans="1:3">
@@ -24439,7 +24439,7 @@
         <v>1191</v>
       </c>
       <c r="C1744" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1745" spans="1:3">
@@ -24450,7 +24450,7 @@
         <v>1192</v>
       </c>
       <c r="C1745" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1746" spans="1:3">
@@ -24472,7 +24472,7 @@
         <v>1194</v>
       </c>
       <c r="C1747" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1748" spans="1:3">
@@ -24604,7 +24604,7 @@
         <v>1205</v>
       </c>
       <c r="C1759" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1760" spans="1:3">
@@ -24626,7 +24626,7 @@
         <v>1207</v>
       </c>
       <c r="C1761" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1762" spans="1:3">
@@ -24637,7 +24637,7 @@
         <v>1205</v>
       </c>
       <c r="C1762" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1763" spans="1:3">
@@ -24824,7 +24824,7 @@
         <v>1215</v>
       </c>
       <c r="C1779" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1780" spans="1:3">
@@ -24879,7 +24879,7 @@
         <v>1207</v>
       </c>
       <c r="C1784" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1785" spans="1:3">
@@ -25099,7 +25099,7 @@
         <v>1237</v>
       </c>
       <c r="C1804" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1805" spans="1:3">
@@ -25165,7 +25165,7 @@
         <v>1242</v>
       </c>
       <c r="C1810" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1811" spans="1:3">
@@ -25187,7 +25187,7 @@
         <v>1244</v>
       </c>
       <c r="C1812" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1813" spans="1:3">
@@ -25297,7 +25297,7 @@
         <v>1251</v>
       </c>
       <c r="C1822" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1823" spans="1:3">
@@ -25352,7 +25352,7 @@
         <v>1253</v>
       </c>
       <c r="C1827" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1828" spans="1:3">
@@ -25374,7 +25374,7 @@
         <v>1255</v>
       </c>
       <c r="C1829" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1830" spans="1:3">
@@ -25440,7 +25440,7 @@
         <v>1261</v>
       </c>
       <c r="C1835" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1836" spans="1:3">
@@ -25473,7 +25473,7 @@
         <v>1264</v>
       </c>
       <c r="C1838" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1839" spans="1:3">
@@ -25649,7 +25649,7 @@
         <v>1278</v>
       </c>
       <c r="C1854" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1855" spans="1:3">
@@ -25660,7 +25660,7 @@
         <v>1278</v>
       </c>
       <c r="C1855" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1856" spans="1:3">
@@ -25671,7 +25671,7 @@
         <v>1278</v>
       </c>
       <c r="C1856" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1857" spans="1:3">
@@ -25682,7 +25682,7 @@
         <v>1278</v>
       </c>
       <c r="C1857" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1858" spans="1:3">
@@ -25979,7 +25979,7 @@
         <v>1297</v>
       </c>
       <c r="C1884" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1885" spans="1:3">
@@ -26012,7 +26012,7 @@
         <v>10</v>
       </c>
       <c r="C1887" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1888" spans="1:3">
@@ -26067,7 +26067,7 @@
         <v>1304</v>
       </c>
       <c r="C1892" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1893" spans="1:3">
@@ -26144,7 +26144,7 @@
         <v>1311</v>
       </c>
       <c r="C1899" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1900" spans="1:3">
@@ -26199,7 +26199,7 @@
         <v>1316</v>
       </c>
       <c r="C1904" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1905" spans="1:3">
@@ -26210,7 +26210,7 @@
         <v>1317</v>
       </c>
       <c r="C1905" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1906" spans="1:3">
@@ -26221,7 +26221,7 @@
         <v>1318</v>
       </c>
       <c r="C1906" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1907" spans="1:3">
@@ -26254,7 +26254,7 @@
         <v>1321</v>
       </c>
       <c r="C1909" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1910" spans="1:3">
@@ -26320,7 +26320,7 @@
         <v>1327</v>
       </c>
       <c r="C1915" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1916" spans="1:3">
@@ -26397,7 +26397,7 @@
         <v>1334</v>
       </c>
       <c r="C1922" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1923" spans="1:3">
@@ -26474,7 +26474,7 @@
         <v>1341</v>
       </c>
       <c r="C1929" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1930" spans="1:3">
@@ -26551,7 +26551,7 @@
         <v>1348</v>
       </c>
       <c r="C1936" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1937" spans="1:3">
@@ -26595,7 +26595,7 @@
         <v>1352</v>
       </c>
       <c r="C1940" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1941" spans="1:3">
@@ -26617,7 +26617,7 @@
         <v>1354</v>
       </c>
       <c r="C1942" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1943" spans="1:3">
@@ -26727,7 +26727,7 @@
         <v>1364</v>
       </c>
       <c r="C1952" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1953" spans="1:3">
@@ -26738,7 +26738,7 @@
         <v>1365</v>
       </c>
       <c r="C1953" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1954" spans="1:3">
@@ -26771,7 +26771,7 @@
         <v>1368</v>
       </c>
       <c r="C1956" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1957" spans="1:3">
@@ -26815,7 +26815,7 @@
         <v>1372</v>
       </c>
       <c r="C1960" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1961" spans="1:3">
@@ -26837,7 +26837,7 @@
         <v>1374</v>
       </c>
       <c r="C1962" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1963" spans="1:3">
@@ -26859,7 +26859,7 @@
         <v>1376</v>
       </c>
       <c r="C1964" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1965" spans="1:3">
@@ -26969,7 +26969,7 @@
         <v>1386</v>
       </c>
       <c r="C1974" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1975" spans="1:3">
@@ -26991,7 +26991,7 @@
         <v>1388</v>
       </c>
       <c r="C1976" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1977" spans="1:3">
@@ -27002,7 +27002,7 @@
         <v>1389</v>
       </c>
       <c r="C1977" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1978" spans="1:3">
@@ -27057,7 +27057,7 @@
         <v>1394</v>
       </c>
       <c r="C1982" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1983" spans="1:3">
@@ -27068,7 +27068,7 @@
         <v>1395</v>
       </c>
       <c r="C1983" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1984" spans="1:3">
@@ -27255,7 +27255,7 @@
         <v>246</v>
       </c>
       <c r="C2000" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2001" spans="1:3">
@@ -27299,7 +27299,7 @@
         <v>1415</v>
       </c>
       <c r="C2004" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2005" spans="1:3">
@@ -27332,7 +27332,7 @@
         <v>1418</v>
       </c>
       <c r="C2007" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2008" spans="1:3">
@@ -27387,7 +27387,7 @@
         <v>1423</v>
       </c>
       <c r="C2012" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2013" spans="1:3">
@@ -27398,7 +27398,7 @@
         <v>1424</v>
       </c>
       <c r="C2013" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2014" spans="1:3">
@@ -27420,7 +27420,7 @@
         <v>1426</v>
       </c>
       <c r="C2015" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2016" spans="1:3">
@@ -27453,7 +27453,7 @@
         <v>1429</v>
       </c>
       <c r="C2018" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2019" spans="1:3">
@@ -27530,7 +27530,7 @@
         <v>1436</v>
       </c>
       <c r="C2025" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2026" spans="1:3">
@@ -27563,7 +27563,7 @@
         <v>1439</v>
       </c>
       <c r="C2028" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2029" spans="1:3">
@@ -27574,7 +27574,7 @@
         <v>1440</v>
       </c>
       <c r="C2029" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2030" spans="1:3">
@@ -27662,7 +27662,7 @@
         <v>1447</v>
       </c>
       <c r="C2037" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2038" spans="1:3">
@@ -27706,7 +27706,7 @@
         <v>1450</v>
       </c>
       <c r="C2041" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2042" spans="1:3">
@@ -27794,7 +27794,7 @@
         <v>1458</v>
       </c>
       <c r="C2049" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2050" spans="1:3">
@@ -27827,7 +27827,7 @@
         <v>1461</v>
       </c>
       <c r="C2052" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2053" spans="1:3">
@@ -27926,7 +27926,7 @@
         <v>1470</v>
       </c>
       <c r="C2061" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2062" spans="1:3">
@@ -27992,7 +27992,7 @@
         <v>1475</v>
       </c>
       <c r="C2067" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2068" spans="1:3">
@@ -28113,7 +28113,7 @@
         <v>1485</v>
       </c>
       <c r="C2078" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2079" spans="1:3">
@@ -28179,7 +28179,7 @@
         <v>1491</v>
       </c>
       <c r="C2084" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2085" spans="1:3">
@@ -28267,7 +28267,7 @@
         <v>727</v>
       </c>
       <c r="C2092" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2093" spans="1:3">
@@ -28344,7 +28344,7 @@
         <v>1505</v>
       </c>
       <c r="C2099" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2100" spans="1:3">
@@ -28421,7 +28421,7 @@
         <v>1512</v>
       </c>
       <c r="C2106" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2107" spans="1:3">
@@ -28476,7 +28476,7 @@
         <v>1517</v>
       </c>
       <c r="C2111" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2112" spans="1:3">
@@ -28553,7 +28553,7 @@
         <v>1048</v>
       </c>
       <c r="C2118" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2119" spans="1:3">
@@ -28729,7 +28729,7 @@
         <v>1538</v>
       </c>
       <c r="C2134" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2135" spans="1:3">
@@ -28740,7 +28740,7 @@
         <v>1539</v>
       </c>
       <c r="C2135" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2136" spans="1:3">
@@ -28850,7 +28850,7 @@
         <v>1549</v>
       </c>
       <c r="C2145" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2146" spans="1:3">
@@ -28861,7 +28861,7 @@
         <v>1550</v>
       </c>
       <c r="C2146" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2147" spans="1:3">
@@ -28883,7 +28883,7 @@
         <v>1552</v>
       </c>
       <c r="C2148" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2149" spans="1:3">
@@ -28927,7 +28927,7 @@
         <v>1556</v>
       </c>
       <c r="C2152" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2153" spans="1:3">
@@ -28938,7 +28938,7 @@
         <v>1557</v>
       </c>
       <c r="C2153" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2154" spans="1:3">
@@ -28971,7 +28971,7 @@
         <v>1560</v>
       </c>
       <c r="C2156" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2157" spans="1:3">
@@ -29015,7 +29015,7 @@
         <v>1564</v>
       </c>
       <c r="C2160" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2161" spans="1:3">
@@ -29037,7 +29037,7 @@
         <v>1566</v>
       </c>
       <c r="C2162" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2163" spans="1:3">
@@ -29070,7 +29070,7 @@
         <v>1569</v>
       </c>
       <c r="C2165" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2166" spans="1:3">
@@ -29180,7 +29180,7 @@
         <v>1579</v>
       </c>
       <c r="C2175" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2176" spans="1:3">
@@ -29202,7 +29202,7 @@
         <v>1581</v>
       </c>
       <c r="C2177" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2178" spans="1:3">
@@ -29224,7 +29224,7 @@
         <v>1583</v>
       </c>
       <c r="C2179" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2180" spans="1:3">
@@ -29257,7 +29257,7 @@
         <v>1586</v>
       </c>
       <c r="C2182" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2183" spans="1:3">
@@ -29279,7 +29279,7 @@
         <v>1588</v>
       </c>
       <c r="C2184" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2185" spans="1:3">
@@ -29323,7 +29323,7 @@
         <v>1591</v>
       </c>
       <c r="C2188" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2189" spans="1:3">
@@ -29510,7 +29510,7 @@
         <v>1598</v>
       </c>
       <c r="C2205" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2206" spans="1:3">
@@ -29609,7 +29609,7 @@
         <v>1606</v>
       </c>
       <c r="C2214" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2215" spans="1:3">
@@ -29664,7 +29664,7 @@
         <v>1611</v>
       </c>
       <c r="C2219" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2220" spans="1:3">
@@ -29796,7 +29796,7 @@
         <v>1591</v>
       </c>
       <c r="C2231" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2232" spans="1:3">
